--- a/backend/data/뽐뿌.xlsx
+++ b/backend/data/뽐뿌.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,22 +466,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(급해요 ㅠㅠ)BHC 치킨 추천 메뉴 좀 부탁드려요.</t>
+          <t>그해우리는 궁금</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:38</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
+          <t xml:space="preserve"> 2 </t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -494,28 +494,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>생굴 2kg(다섯근)</t>
+          <t>24시 영업 선언했던 카페, 압수수색 ㅋㅋ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>848</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t xml:space="preserve"> 15 </t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -524,26 +522,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>아파트 10억 오르고 1억 내렸다고 죽는소리</t>
+          <t>저는 바보였네요 ㅎㅎ;;</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:36</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4 </t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -552,26 +550,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>망할 뚜레쥬르륵!!!</t>
+          <t>방송인 최욱 K리그 조작하라고 한 후 또 망언했네요</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 16:35</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>323</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8 </t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -580,17 +578,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>날씨가 우중충하네요</t>
+          <t>뽐게보고 티몬에서산 1+1 수면바지 괜찮네요.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 16:35</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>127</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -606,22 +604,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>선박 수주 개선현대삼호중 올해 149명 채용</t>
+          <t>CJ택배 파업이네요</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 16:34</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>228</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 </t>
+          <t xml:space="preserve"> 4 </t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -634,23 +632,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>매운걸 잘먹고싶네요 ㅜㅜ</t>
+          <t>당 땡길때 먹어보세요</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 16:34</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5 </t>
-        </is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -662,22 +658,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>아는 동생과 낮술하다 내기했습니다. 투표 좀 해주세요!!!</t>
+          <t>영화 돈룩업 진짜 잘만든거 같아요</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:33</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>297</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9 </t>
+          <t xml:space="preserve"> 4 </t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -690,22 +686,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3차 화이자 5일차</t>
+          <t>남페미 페북 대참사</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:32</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>647</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
+          <t xml:space="preserve"> 9 </t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -718,22 +714,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>처음으로 나이키 조던 당첨됐는데...</t>
+          <t>고요바다보다가 갑자기 궁금해서요..;;</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 16:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>258</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 </t>
+          <t xml:space="preserve"> 3 </t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -746,22 +742,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>다이어리 쓰시나요?</t>
+          <t>10억 vs 징역 4년ㄷㄷ.jpg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 16:29</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>1459</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
+          <t xml:space="preserve"> 19 </t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -774,23 +770,21 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>새해 결심상품 '특수'</t>
+          <t>인제군, 귀둔농공단지 교육 서비스업 추가</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 16:29</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1 </t>
-        </is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -802,17 +796,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>드디어 다 봤어요. 오징어 게임과 지옥</t>
+          <t>택배가 왜 안오나 했더니 파업이군요</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 16:29</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>246</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -830,22 +824,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>웨이브 넷플 티빙 중에서 보통 어떤거 쓰시나요 ?</t>
+          <t>쿠팡 로켓배송 기존회원 2900원 유지라네요</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 16:29</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>768</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 </t>
+          <t xml:space="preserve"> 11 </t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -858,23 +852,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>스쿠터나 오토바이도 비싸네요 ㄷㄷㄷ</t>
+          <t>도미노피자 포장 50프로 할인</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 16:28</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12 </t>
-        </is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -886,23 +878,21 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>취준생인데 숏컷이네요?</t>
+          <t>최근 데탑 맞추신분 있나요??</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 16:28</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1109</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 18 </t>
-        </is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -914,22 +904,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>고요의바다 볼려고하는데 재밌나요</t>
+          <t>센스맘매트리스 생각보다 별로네요</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 16:26</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>184</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 </t>
+          <t xml:space="preserve"> 1 </t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -942,22 +932,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1995년 스포츠게임 가격  [피파95, NBA 라이브95]</t>
+          <t>맥날 바닐라 라떼 쿠폰 많이 모았네요.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>436</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 </t>
+          <t xml:space="preserve"> 12 </t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -970,22 +960,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>보초 운전 차량 발견 ㅋㅋㅋㅋ</t>
+          <t>가격이 두배가까이 뛰는건 또 처음보네요</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>881</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11 </t>
+          <t xml:space="preserve"> 5 </t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -998,22 +988,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>신분증 안들고다니는분들 계시나요?</t>
+          <t>송소희한테 진심인 이찬혁 ㄷㄷㄷ.jpg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:24</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>2229</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 </t>
+          <t xml:space="preserve"> 5 </t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1026,26 +1016,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>플랫 휴대폰의 위대한 장점, 파지의 자유</t>
+          <t>혼인율 급락으로 국가 기간산업이 박살날거라는 말도 있더군요</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:23</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>582</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
+          <t xml:space="preserve"> 12 </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1054,26 +1046,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>간만에 카레 만들어서 먹어야겠네요</t>
+          <t>와 이논리 진짜 신박하네요....</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:23</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>540</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 </t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1082,22 +1076,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>전기요금 인상과 관련해서 한전이 장난질 쳤나보네요..</t>
+          <t>송년이라고 우주패스 첫 가입시 12,000 포인트 주네요</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 16:22</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>890</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5 </t>
+          <t xml:space="preserve"> 6 </t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1110,22 +1104,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>평일 낮인데 벌써 주문 폭주인듯..</t>
+          <t>아이 뮤지컬 관람</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 16:19</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1754</t>
+          <t>176</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8 </t>
+          <t xml:space="preserve"> 4 </t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1138,21 +1132,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>눈길 위, 기사님의 신들린 운전</t>
+          <t>멤버쉽 신규 비용 올리는 경우 기존 가입자 요금은 그대로 유지하는 경우도 있나요?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 16:18</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>387</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1164,22 +1160,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>베트남에서 박항서 받은 이유가..</t>
+          <t>슈퍼클럽 마지막 썼네요</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021.12.28 15:17</t>
+          <t>2021.12.29 16:18</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>326</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 </t>
+          <t xml:space="preserve"> 1 </t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1192,25 +1188,333 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>움짤로 유명했던 시바견 근황...gif</t>
+          <t>쿠팡 곧 오르겠다 싶긴했어요</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:18</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2759</t>
+          <t>816</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16 </t>
+          <t xml:space="preserve"> 5 </t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>쿠팡 가입해놔야 하나요 일단 기존회원은 유지</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:18</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9 </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>현재 각종 커뮤니티에서 폭발적인 반응을 보이는 핫한 월세 계산문제.. jpg</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:17</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 42 </t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>25만원 받은 재난지원금 궁금한게 있습니다.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:16</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>¿Í¿ìÄíÆÎ ¸â¹ö½ÊÀ» À¯Æ©ºê ÇÁ¸®¹Ì¾ö¶§Ã³·³ ÇßÀ¸¸é ÁÁ°Ú³×¿ä.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:15</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ÄíÆÎ ¿Í¿ì°¡ ¸Å¿ù 31ÀÏ °áÁ¦ÀÎµ¥.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:14</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>¾ÖÇÃÀº ÆùÄÉÀÌ½º±îÁö ºñ½Î³×¿ä</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:14</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ÄíÆÎ ¿Í¿ì¸â¹ö½Ê ¿ä±Ý ÀÎ»ó..</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:13</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ÄíÆÎ ¸â¹ö½± ÀÎ»ó</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:13</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1620</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8 </t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>°£Â«»Í¿¡ °è¶õÈÄ¶óÀÌ</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:11</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>°Ü¿ï¿¡ ¾ÆÆÄÆ® º£¶õ´ÙÀÇ ¼¼Å¹±â ¶§¹®¿¡ ¿ª·ùÇÏ´Â ÀÌÀ¯</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:11</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9 </t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ÇÇÀÚÇê ÇÁ¸®¹Ì¾ö ¹¹°¡ Á¦ÀÏ ¸À³ª³ª¿ä</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:10</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="F39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/backend/data/뽐뿌.xlsx
+++ b/backend/data/뽐뿌.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,23 +466,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>그해우리는 궁금</t>
+          <t>왜 여름 휴가만 있고 겨울 휴가는 없는건지..</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 16:38</t>
+          <t>2021.12.29 18:34</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2 </t>
-        </is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -494,23 +492,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>24시 영업 선언했던 카페, 압수수색 ㅋㅋ</t>
+          <t>해운대 힐스파 가보고 싶네요</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 16:36</t>
+          <t>2021.12.29 18:31</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>848</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 15 </t>
-        </is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -522,26 +518,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>저는 바보였네요 ㅎㅎ;;</t>
+          <t>신민아 코로나19 취약계층 아동위해 3억 기부.... ㄷㄷㄷ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 16:36</t>
+          <t>2021.12.29 18:31</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -550,25 +546,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>방송인 최욱 K리그 조작하라고 한 후 또 망언했네요</t>
+          <t>이상민, GD가 신발 선물 한번도 안해줫다고 서운함 피력</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.29 16:35</t>
+          <t>2021.12.29 18:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>274</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 </t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -578,21 +576,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>뽐게보고 티몬에서산 1+1 수면바지 괜찮네요.</t>
+          <t>실제 남극 크기...gif</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.29 16:35</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -604,22 +604,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CJ택배 파업이네요</t>
+          <t>육회먹습니다</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.29 16:34</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>267</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 </t>
+          <t xml:space="preserve"> 1 </t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -632,21 +632,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>당 땡길때 먹어보세요</t>
+          <t>매트릭스 신작후기</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.29 16:34</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -658,23 +660,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>영화 돈룩업 진짜 잘만든거 같아요</t>
+          <t>삼성전자형의 초등여교사와의 소개팅.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.29 16:33</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>297</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4 </t>
-        </is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -686,26 +686,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>남페미 페북 대참사</t>
+          <t>만리장성은 평양까지다</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.29 16:32</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>280</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9 </t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
+          <t xml:space="preserve"> 1 </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -714,22 +716,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>고요바다보다가 갑자기 궁금해서요..;;</t>
+          <t>백신 화이자로 3연속 하신분 계신가요</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.29 16:30</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>331</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
+          <t xml:space="preserve"> 11 </t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -742,22 +744,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10억 vs 징역 4년ㄷㄷ.jpg</t>
+          <t>층간소음 아랫집이 이기는 필승법</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.29 16:29</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1459</t>
+          <t>617</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19 </t>
+          <t xml:space="preserve"> 13 </t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -770,17 +772,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>인제군, 귀둔농공단지 교육 서비스업 추가</t>
+          <t>얼은 발 녹이는데 드라이기 최고네요.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.29 16:29</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>129</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -796,23 +798,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>택배가 왜 안오나 했더니 파업이군요</t>
+          <t>온난화가되면 기후가 어찌되는건지</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021.12.29 16:29</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7 </t>
-        </is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -824,22 +824,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>쿠팡 로켓배송 기존회원 2900원 유지라네요</t>
+          <t>내일부터 또 추워진데요</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021.12.29 16:29</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>273</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11 </t>
+          <t xml:space="preserve"> 2 </t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -852,21 +852,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>도미노피자 포장 50프로 할인</t>
+          <t>요즘 tv 카메라 기술이 많이 발전한 듯요</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021.12.29 16:28</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -878,21 +880,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>최근 데탑 맞추신분 있나요??</t>
+          <t>프랑스 일일 확진자 18만명.... 허걱...</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021.12.29 16:28</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -904,22 +908,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>센스맘매트리스 생각보다 별로네요</t>
+          <t>강용석 무슨일이죠 ㄷㄷㄷㄷㄷㄷ</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021.12.29 16:26</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 </t>
+          <t xml:space="preserve"> 9 </t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -932,23 +936,21 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>맥날 바닐라 라떼 쿠폰 많이 모았네요.</t>
+          <t>파주 임진각 곤돌라</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021.12.29 16:25</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>436</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12 </t>
-        </is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -960,22 +962,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>가격이 두배가까이 뛰는건 또 처음보네요</t>
+          <t>이번 주 토요일 무시무시한 일이 벌어집니다</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021.12.29 16:25</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>668</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5 </t>
+          <t xml:space="preserve"> 4 </t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -988,22 +990,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>송소희한테 진심인 이찬혁 ㄷㄷㄷ.jpg</t>
+          <t>외신에 소개된 한국의 졸업 선물 '성형 수술'</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021.12.29 16:24</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2229</t>
+          <t>623</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5 </t>
+          <t xml:space="preserve"> 3 </t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1016,28 +1018,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>혼인율 급락으로 국가 기간산업이 박살날거라는 말도 있더군요</t>
+          <t>중국의 폴더블폰 추격에 삼성의 대응.gif</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021.12.29 16:23</t>
+          <t>2021.12.29 18:20</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>951</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 </t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1046,28 +1046,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>와 이논리 진짜 신박하네요....</t>
+          <t>택배 대란이네요 ㅠㅠ</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021.12.29 16:23</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>508</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 </t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1076,22 +1074,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>송년이라고 우주패스 첫 가입시 12,000 포인트 주네요</t>
+          <t>저녁만 먹으면 잠이 쏟아지네요.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021.12.29 16:22</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>78</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 </t>
+          <t xml:space="preserve"> 1 </t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1104,23 +1102,21 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>아이 뮤지컬 관람</t>
+          <t>G9 박싱데이</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021.12.29 16:19</t>
+          <t>2021.12.29 18:18</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4 </t>
-        </is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1132,22 +1128,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>멤버쉽 신규 비용 올리는 경우 기존 가입자 요금은 그대로 유지하는 경우도 있나요?</t>
+          <t>비염때문에 죽을맛입니다</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021.12.29 16:18</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>182</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 </t>
+          <t xml:space="preserve"> 5 </t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1160,22 +1156,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>슈퍼클럽 마지막 썼네요</t>
+          <t>월간 qcy</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021.12.29 16:18</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>474</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 </t>
+          <t xml:space="preserve"> 5 </t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1188,26 +1184,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>쿠팡 곧 오르겠다 싶긴했어요</t>
+          <t>할머니랑 &lt;킹스맨&gt; 보고 왔어요</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021.12.29 16:18</t>
+          <t>2021.12.29 18:13</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>552</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5 </t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
+          <t xml:space="preserve"> 13 </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1216,22 +1214,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>쿠팡 가입해놔야 하나요 일단 기존회원은 유지</t>
+          <t>부산 복산1구역 재개발 심의보류되었네요</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021.12.29 16:18</t>
+          <t>2021.12.29 18:12</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>525</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9 </t>
+          <t xml:space="preserve"> 11 </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1246,22 +1244,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>현재 각종 커뮤니티에서 폭발적인 반응을 보이는 핫한 월세 계산문제.. jpg</t>
+          <t>젊은 여자들 중에 몇프로? 정도 예쁘다고 보시나요?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021.12.29 16:17</t>
+          <t>2021.12.29 18:08</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>772</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42 </t>
+          <t xml:space="preserve"> 24 </t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1274,22 +1272,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>25만원 받은 재난지원금 궁금한게 있습니다.</t>
+          <t>저는 못받아도 좋으니... 재난지원금 한번 줬으면 좋겠네요..</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021.12.29 16:16</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>394</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 </t>
+          <t xml:space="preserve"> 7 </t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1302,22 +1300,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>¿Í¿ìÄíÆÎ ¸â¹ö½ÊÀ» À¯Æ©ºê ÇÁ¸®¹Ì¾ö¶§Ã³·³ ÇßÀ¸¸é ÁÁ°Ú³×¿ä.</t>
+          <t>백신 3차 접종후 어깨근육통증. 오십견?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021.12.29 16:15</t>
+          <t>2021.12.29 18:06</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>294</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 </t>
+          <t xml:space="preserve"> 17 </t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1330,191 +1328,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ÄíÆÎ ¿Í¿ì°¡ ¸Å¿ù 31ÀÏ °áÁ¦ÀÎµ¥.</t>
+          <t>학자금 대출부담을 개선하여 증액</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021.12.29 16:14</t>
+          <t>2021.12.29 18:06</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>660</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2 </t>
-        </is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>¾ÖÇÃÀº ÆùÄÉÀÌ½º±îÁö ºñ½Î³×¿ä</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:14</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4 </t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ÄíÆÎ ¿Í¿ì¸â¹ö½Ê ¿ä±Ý ÀÎ»ó..</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:13</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>672</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ÄíÆÎ ¸â¹ö½± ÀÎ»ó</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:13</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1620</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8 </t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>°£Â«»Í¿¡ °è¶õÈÄ¶óÀÌ</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:11</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>393</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2 </t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>°Ü¿ï¿¡ ¾ÆÆÄÆ® º£¶õ´ÙÀÇ ¼¼Å¹±â ¶§¹®¿¡ ¿ª·ùÇÏ´Â ÀÌÀ¯</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:11</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>767</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9 </t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ÇÇÀÚÇê ÇÁ¸®¹Ì¾ö ¹¹°¡ Á¦ÀÏ ¸À³ª³ª¿ä</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:10</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>340</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6 </t>
-        </is>
-      </c>
-      <c r="F39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/backend/data/뽐뿌.xlsx
+++ b/backend/data/뽐뿌.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>왜 여름 휴가만 있고 겨울 휴가는 없는건지..</t>
+          <t>캐시워크</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 18:34</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -492,17 +492,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>해운대 힐스파 가보고 싶네요</t>
+          <t>KT인터넷과 TV 설치할 때 우선순위가 뭔가요?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 18:31</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -518,22 +518,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>신민아 코로나19 취약계층 아동위해 3억 기부.... ㄷㄷㄷ</t>
+          <t>겨울 헤비구스다운 패딩이 3년정도된 이월인데 살만한지 모르겠네요</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 18:31</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 </t>
+          <t xml:space="preserve"> 2 </t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -546,28 +546,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>이상민, GD가 신발 선물 한번도 안해줫다고 서운함 피력</t>
+          <t>스타벅스쿠폰100% + 즉석경품응모</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.29 18:30</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>154</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 </t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -576,23 +574,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>실제 남극 크기...gif</t>
+          <t>펩시 제로가 근본인 IU</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 19:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>908</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1 </t>
-        </is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -604,26 +600,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>육회먹습니다</t>
+          <t>영화 대부 그렇게 명작이래서 보는중인데</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>190</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 </t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
+          <t xml:space="preserve"> 8 </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -632,22 +630,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>매트릭스 신작후기</t>
+          <t>주유소 화재사건</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>443</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 </t>
+          <t xml:space="preserve"> 6 </t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -660,17 +658,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>삼성전자형의 초등여교사와의 소개팅.</t>
+          <t>쿠팡 아베다 12000원 적립되신분?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:55</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>114</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -686,28 +684,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>만리장성은 평양까지다</t>
+          <t>오늘자 친구의사진 슬픔주의</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:53</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>925</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 </t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t xml:space="preserve"> 14 </t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -716,22 +712,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>백신 화이자로 3연속 하신분 계신가요</t>
+          <t>하트시그널2 꿀잼 ㄷㄷ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:52</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>310</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11 </t>
+          <t xml:space="preserve"> 4 </t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -744,23 +740,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>층간소음 아랫집이 이기는 필승법</t>
+          <t>귀여운 양이</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:51</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>617</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 13 </t>
-        </is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -772,21 +766,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>얼은 발 녹이는데 드라이기 최고네요.</t>
+          <t>피자헛 역대가로 구매한듯</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -798,21 +794,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>온난화가되면 기후가 어찌되는건지</t>
+          <t>네이버지도로 보는데 전라도는 코스트코가없네요</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:47</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 </t>
+        </is>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -824,26 +822,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>내일부터 또 추워진데요</t>
+          <t>'마약 운전'에 실탄 11발과 테이저건 사용. 긴박했던 체포 현장.youtube</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:46</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>474</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 </t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+          <t xml:space="preserve"> 9 </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -852,23 +852,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>요즘 tv 카메라 기술이 많이 발전한 듯요</t>
+          <t>캐시워크</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>203</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4 </t>
-        </is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -880,22 +878,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>프랑스 일일 확진자 18만명.... 허걱...</t>
+          <t>티데이 피자헛 지난주에 썼으면 이번주는 못쓰나요?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>261</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 </t>
+          <t xml:space="preserve"> 2 </t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -908,22 +906,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>강용석 무슨일이죠 ㄷㄷㄷㄷㄷㄷ</t>
+          <t>똥집에 맥주 한 잔</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>404</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9 </t>
+          <t xml:space="preserve"> 2 </t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -936,21 +934,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>파주 임진각 곤돌라</t>
+          <t>피자헛 매직바코드 적용되나요?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>516</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -962,22 +962,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>이번 주 토요일 무시무시한 일이 벌어집니다</t>
+          <t>5대 은행, 내년 가계대출 더 조인다..총량한도 축소</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>428</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 </t>
+          <t xml:space="preserve"> 6 </t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -990,26 +990,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>외신에 소개된 한국의 졸업 선물 '성형 수술'</t>
+          <t>KBS 수신료 52% 인상안 방통위 의견서 국회 전달</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:42</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>577</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
+          <t xml:space="preserve"> 12 </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1018,22 +1020,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>중국의 폴더블폰 추격에 삼성의 대응.gif</t>
+          <t>오늘 MBC연예대상 누가받을까요</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>951</t>
+          <t>603</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 </t>
+          <t xml:space="preserve"> 9 </t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1046,22 +1048,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>택배 대란이네요 ㅠㅠ</t>
+          <t>헐 오늘 골때녀 결방이네요</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:40</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>623</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
+          <t xml:space="preserve"> 8 </t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1074,22 +1076,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>저녁만 먹으면 잠이 쏟아지네요.</t>
+          <t>영화 스파이더맨: 노웨이홈 500만 관객 돌파올해 최다 관객</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>260</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 </t>
+          <t xml:space="preserve"> 4 </t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1102,21 +1104,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>G9 박싱데이</t>
+          <t>현금없는 인천버스</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>377</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8 </t>
+        </is>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1128,223 +1132,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>비염때문에 죽을맛입니다</t>
+          <t>왜 여름 휴가만 있고 겨울 휴가는 없는건지..</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:34</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>428</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5 </t>
+          <t xml:space="preserve"> 17 </t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>월간 qcy</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:17</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>474</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5 </t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>할머니랑 &lt;킹스맨&gt; 보고 왔어요</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:13</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>552</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 13 </t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>부산 복산1구역 재개발 심의보류되었네요</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:12</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 11 </t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>젊은 여자들 중에 몇프로? 정도 예쁘다고 보시나요?</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:08</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>772</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 </t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>저는 못받아도 좋으니... 재난지원금 한번 줬으면 좋겠네요..</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:07</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>394</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7 </t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>백신 3차 접종후 어깨근육통증. 오십견?</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:06</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>294</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 17 </t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>학자금 대출부담을 개선하여 증액</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:06</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/backend/data/뽐뿌.xlsx
+++ b/backend/data/뽐뿌.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,21 +466,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>캐시워크</t>
+          <t>네네치킨 후라이드는 별로네요</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 19:01</t>
+          <t>2021.12.29 22:59</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -492,21 +494,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KT인터넷과 TV 설치할 때 우선순위가 뭔가요?</t>
+          <t>신태용 영혼까지 털리고 있음</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 19:01</t>
+          <t>2021.12.29 22:57</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -518,23 +522,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>겨울 헤비구스다운 패딩이 3년정도된 이월인데 살만한지 모르겠네요</t>
+          <t>시상식 음향장비</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 19:00</t>
+          <t>2021.12.29 22:57</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2 </t>
-        </is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -546,23 +548,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>스타벅스쿠폰100% + 즉석경품응모</t>
+          <t>오늘 선별소 의료진이 이걸 들고 방긋웃으면서 보여주시던군요</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.29 19:00</t>
+          <t>2021.12.29 22:57</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1 </t>
-        </is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -574,21 +574,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>펩시 제로가 근본인 IU</t>
+          <t>태국 인니는 결정력 엄청 차이나네요</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.29 19:00</t>
+          <t>2021.12.29 22:56</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>289</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -600,28 +602,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>영화 대부 그렇게 명작이래서 보는중인데</t>
+          <t>음향사고 아닌가요</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.29 18:58</t>
+          <t>2021.12.29 22:56</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>267</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8 </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -630,22 +630,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>주유소 화재사건</t>
+          <t>'놀면 뭐하니' 고가 스피커 뭐길래</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.29 18:57</t>
+          <t>2021.12.29 22:55</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>759</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 </t>
+          <t xml:space="preserve"> 1 </t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -658,21 +658,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>쿠팡 아베다 12000원 적립되신분?</t>
+          <t>msg워너비 라이브...</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.29 18:55</t>
+          <t>2021.12.29 22:55</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -684,22 +686,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>오늘자 친구의사진 슬픔주의</t>
+          <t>본인이야기)김여사님 도와주고 충격 먹은 썰</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.29 18:53</t>
+          <t>2021.12.29 22:54</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>358</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 </t>
+          <t xml:space="preserve"> 1 </t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -712,22 +714,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>하트시그널2 꿀잼 ㄷㄷ</t>
+          <t>아직도 솔로인 누님</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.29 18:52</t>
+          <t>2021.12.29 22:54</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 </t>
+          <t xml:space="preserve"> 7 </t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -740,21 +742,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>귀여운 양이</t>
+          <t>MSG 워너비 라이브 ㅎㄷㄷ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.29 18:51</t>
+          <t>2021.12.29 22:53</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>325</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18 </t>
+        </is>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -766,22 +770,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>피자헛 역대가로 구매한듯</t>
+          <t>이 프레첼 가격 양 맛다좋네요</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.29 18:48</t>
+          <t>2021.12.29 22:53</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>272</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5 </t>
+          <t xml:space="preserve"> 1 </t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -794,22 +798,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>네이버지도로 보는데 전라도는 코스트코가없네요</t>
+          <t>현 시각 백업 데이터를 포함한 모든 서버 데이터가 날아간 게임</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021.12.29 18:47</t>
+          <t>2021.12.29 22:52</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>659</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 </t>
+          <t xml:space="preserve"> 1 </t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -822,22 +826,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>'마약 운전'에 실탄 11발과 테이저건 사용. 긴박했던 체포 현장.youtube</t>
+          <t>최근 많이 이뻐진 연우....jpg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021.12.29 18:46</t>
+          <t>2021.12.29 22:51</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>1612</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9 </t>
+          <t xml:space="preserve"> 3 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -852,21 +856,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>캐시워크</t>
+          <t>mbc연예대상 광고</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021.12.29 18:45</t>
+          <t>2021.12.29 22:47</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -878,26 +884,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>티데이 피자헛 지난주에 썼으면 이번주는 못쓰나요?</t>
+          <t>엠비씨 연예대상 보는데요</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021.12.29 18:44</t>
+          <t>2021.12.29 22:47</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>756</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 </t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -906,22 +914,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>똥집에 맥주 한 잔</t>
+          <t>부부사이에 카톡</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021.12.29 18:44</t>
+          <t>2021.12.29 22:44</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 </t>
+          <t xml:space="preserve"> 15 </t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -934,22 +942,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>피자헛 매직바코드 적용되나요?</t>
+          <t>이렇게 된 이상 청와대로 간다</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021.12.29 18:44</t>
+          <t>2021.12.29 22:40</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>828</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5 </t>
+          <t xml:space="preserve"> 2 </t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -962,22 +970,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5대 은행, 내년 가계대출 더 조인다..총량한도 축소</t>
+          <t>오늘 골때녀 결방은 또 조작해 놓은거 다시 편집하느라고 그런건가요</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021.12.29 18:43</t>
+          <t>2021.12.29 22:39</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>634</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 </t>
+          <t xml:space="preserve"> 9 </t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -990,28 +998,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KBS 수신료 52% 인상안 방통위 의견서 국회 전달</t>
+          <t>의천도룡기 2019 요즘 정말 재밌게 봅니다</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021.12.29 18:42</t>
+          <t>2021.12.29 22:39</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>511</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 </t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t xml:space="preserve"> 24 </t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1020,22 +1026,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>오늘 MBC연예대상 누가받을까요</t>
+          <t>지역별로 치킨.분식.피자가격은 별차이없는데</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021.12.29 18:41</t>
+          <t>2021.12.29 22:39</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>321</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9 </t>
+          <t xml:space="preserve"> 5 </t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1048,22 +1054,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>헐 오늘 골때녀 결방이네요</t>
+          <t>호주의 실제 크기 ㄷㄷ.jpg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021.12.29 18:40</t>
+          <t>2021.12.29 22:38</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>2639</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8 </t>
+          <t xml:space="preserve"> 16 </t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1076,22 +1082,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>영화 스파이더맨: 노웨이홈 500만 관객 돌파올해 최다 관객</t>
+          <t>코다리 생으로 그냥 드시는분 있나요?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021.12.29 18:37</t>
+          <t>2021.12.29 22:37</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>458</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 </t>
+          <t xml:space="preserve"> 5 </t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1104,26 +1110,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>현금없는 인천버스</t>
+          <t>토이푸들이 점점 커져요</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021.12.29 18:36</t>
+          <t>2021.12.29 22:36</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>2047</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8 </t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
+          <t xml:space="preserve"> 38 </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1132,25 +1140,243 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>왜 여름 휴가만 있고 겨울 휴가는 없는건지..</t>
+          <t>골목식당 마지막회하네요</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021.12.29 18:34</t>
+          <t>2021.12.29 22:36</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>697</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 17 </t>
+          <t xml:space="preserve"> 5 </t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>자몽에 이슬??소주 먹엇는데</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2021.12.29 22:36</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>나는솔로ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2021.12.29 22:36</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>신년맞이 궁합 봐줄까요? 재미로 보는 월로보는 궁합...</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2021.12.29 22:34</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>아이유 조각집은 앨범으로 안나오나 보네요.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2021.12.29 22:33</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>밥에 부대찌개에 그나마 어울릴 치킨 후라이드vs양념 추천받아요</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2021.12.29 22:33</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>오늘 피자헛 치즈크러스트 시켰는데 치즈가 빈곤하네요.jpg</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2021.12.29 22:33</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 </t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>질문)모 연예인이 방역패스 어기고 공연했는데 쉬쉬하고 있다네요.. 형님들 의견은?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2021.12.29 22:32</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9 </t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>친자가 맞는데 친자불일치가 뜨는 실제 사례ㄷㄷ.jpg</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021.12.29 22:32</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9 </t>
+        </is>
+      </c>
+      <c r="F34" t="n">
         <v>0</v>
       </c>
     </row>

--- a/backend/data/뽐뿌.xlsx
+++ b/backend/data/뽐뿌.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,23 +466,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>네네치킨 후라이드는 별로네요</t>
+          <t>며느라기2 이번엔 박하선이 임신했네요</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 22:59</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1 </t>
-        </is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -494,23 +492,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>신태용 영혼까지 털리고 있음</t>
+          <t>미스트롯 윤태화 근황~</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 22:57</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>517</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1 </t>
-        </is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -522,17 +518,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>시상식 음향장비</t>
+          <t>무료 비타500받으세요. (전자랜드에서 가전제품 찜하기)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 22:57</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>161</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -548,21 +544,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>오늘 선별소 의료진이 이걸 들고 방긋웃으면서 보여주시던군요</t>
+          <t>사기 신고한지가 6개월이 넘었는데 .... 계좌 정지도 안하고</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.29 22:57</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>393</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -574,22 +572,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>태국 인니는 결정력 엄청 차이나네요</t>
+          <t>추락한 택시 기사가 70대였군요.ㅎㄷㄷ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.29 22:56</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>557</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
+          <t xml:space="preserve"> 1 </t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -602,26 +600,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>음향사고 아닌가요</t>
+          <t>회사에서 "기안"  올릴때 문서 양식</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.29 22:56</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 </t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
+          <t xml:space="preserve"> 14 </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -630,22 +630,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>'놀면 뭐하니' 고가 스피커 뭐길래</t>
+          <t>개특가네요 트레이더스</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.29 22:55</t>
+          <t>2021.12.30 17:27</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>515</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 </t>
+          <t xml:space="preserve"> 4 </t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -658,22 +658,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>msg워너비 라이브...</t>
+          <t>ㅅㅅ하려고 어플로 만났다가 남자한테 버림받은 여시언냐</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.29 22:55</t>
+          <t>2021.12.30 17:24</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 </t>
+          <t xml:space="preserve"> 11 </t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -686,22 +686,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>본인이야기)김여사님 도와주고 충격 먹은 썰</t>
+          <t>레쓰비 쿠션.jpg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.29 22:54</t>
+          <t>2021.12.30 17:24</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>947</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 </t>
+          <t xml:space="preserve"> 6 </t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -714,23 +714,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>아직도 솔로인 누님</t>
+          <t>이러니 기레기라는 말을 안할래야 안할수가</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.29 22:54</t>
+          <t>2021.12.30 17:22</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1205</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7 </t>
-        </is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -742,17 +740,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MSG 워너비 라이브 ㅎㄷㄷ</t>
+          <t>신세계백화점 라운지에서 주는 과자라네요</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.29 22:53</t>
+          <t>2021.12.30 17:22</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -770,22 +768,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>이 프레첼 가격 양 맛다좋네요</t>
+          <t>캐시워크-52 (쥬비스)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.29 22:53</t>
+          <t>2021.12.30 17:22</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>82</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 </t>
+          <t xml:space="preserve"> 2 </t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -798,26 +796,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>현 시각 백업 데이터를 포함한 모든 서버 데이터가 날아간 게임</t>
+          <t>2021년 최악의 드라마</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021.12.29 22:52</t>
+          <t>2021.12.30 17:20</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>1424</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 </t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
+          <t xml:space="preserve"> 14 </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -826,28 +826,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>최근 많이 이뻐진 연우....jpg</t>
+          <t>택시 추락은 급발진 의심논란이없나요</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021.12.29 22:51</t>
+          <t>2021.12.30 17:19</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>899</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t xml:space="preserve"> 11 </t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -856,22 +854,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mbc연예대상 광고</t>
+          <t>허위사실적시와 비난.비방은 인정되나 칭찬의 의도라는 판결문 대법확정</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021.12.29 22:47</t>
+          <t>2021.12.30 17:17</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>386</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
+          <t xml:space="preserve"> 5 </t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -884,27 +882,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>엠비씨 연예대상 보는데요</t>
+          <t>이해하면 무서운 사진 ㄷㄷ....jpg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021.12.29 22:47</t>
+          <t>2021.12.30 17:16</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
+          <t xml:space="preserve"> 23 </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -914,22 +912,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>부부사이에 카톡</t>
+          <t>부산 마트 5층 주차장서 택시 추락</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021.12.29 22:44</t>
+          <t>2021.12.30 17:13</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>1146</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15 </t>
+          <t xml:space="preserve"> 8 </t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -942,22 +940,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>이렇게 된 이상 청와대로 간다</t>
+          <t>mbc연예대상 보는데... 주제가 깐부인거같은데</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021.12.29 22:40</t>
+          <t>2021.12.30 17:11</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>651</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 </t>
+          <t xml:space="preserve"> 4 </t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -970,26 +968,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>오늘 골때녀 결방은 또 조작해 놓은거 다시 편집하느라고 그런건가요</t>
+          <t>착시현상.......레전드...gif</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021.12.29 22:39</t>
+          <t>2021.12.30 17:11</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>2870</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9 </t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
+          <t xml:space="preserve"> 14 </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -998,26 +998,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>의천도룡기 2019 요즘 정말 재밌게 봅니다</t>
+          <t>cgv 예매해 드립니다.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021.12.29 22:39</t>
+          <t>2021.12.30 17:10</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>492</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 </t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
+          <t xml:space="preserve"> 42 </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1026,22 +1028,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>지역별로 치킨.분식.피자가격은 별차이없는데</t>
+          <t>털크록스 따뜻한지</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021.12.29 22:39</t>
+          <t>2021.12.30 17:10</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>348</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5 </t>
+          <t xml:space="preserve"> 4 </t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1054,329 +1056,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>호주의 실제 크기 ㄷㄷ.jpg</t>
+          <t>와 요기요 땅파서 장사하나요?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021.12.29 22:38</t>
+          <t>2021.12.30 17:07</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2639</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16 </t>
+          <t xml:space="preserve"> 10 </t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>코다리 생으로 그냥 드시는분 있나요?</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2021.12.29 22:37</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>458</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5 </t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>토이푸들이 점점 커져요</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2021.12.29 22:36</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2047</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 38 </t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>골목식당 마지막회하네요</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2021.12.29 22:36</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>697</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5 </t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>자몽에 이슬??소주 먹엇는데</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2021.12.29 22:36</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>나는솔로ㅋㅋㅋ</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2021.12.29 22:36</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>신년맞이 궁합 봐줄까요? 재미로 보는 월로보는 궁합...</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2021.12.29 22:34</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>389</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4 </t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>아이유 조각집은 앨범으로 안나오나 보네요.</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2021.12.29 22:33</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>밥에 부대찌개에 그나마 어울릴 치킨 후라이드vs양념 추천받아요</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2021.12.29 22:33</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2 </t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>오늘 피자헛 치즈크러스트 시켰는데 치즈가 빈곤하네요.jpg</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2021.12.29 22:33</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>719</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7 </t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>질문)모 연예인이 방역패스 어기고 공연했는데 쉬쉬하고 있다네요.. 형님들 의견은?</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2021.12.29 22:32</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1268</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9 </t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>친자가 맞는데 친자불일치가 뜨는 실제 사례ㄷㄷ.jpg</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2021.12.29 22:32</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9 </t>
-        </is>
-      </c>
-      <c r="F34" t="n">
         <v>0</v>
       </c>
     </row>

--- a/backend/data/뽐뿌.xlsx
+++ b/backend/data/뽐뿌.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,24 +466,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>며느라기2 이번엔 박하선이 임신했네요</t>
+          <t>고령 운전면허 반납 쉽지 않습니다.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:04</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>186</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -492,21 +494,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>미스트롯 윤태화 근황~</t>
+          <t>아머드 사우루스 보는데 cg가....</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:04</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>474</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -518,21 +522,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>무료 비타500받으세요. (전자랜드에서 가전제품 찜하기)</t>
+          <t>'내 남편과 결혼해줘' 추천합니다</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:04</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -544,17 +550,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>사기 신고한지가 6개월이 넘었는데 .... 계좌 정지도 안하고</t>
+          <t>예능 중에 가장 힘든건 뭘까요</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -572,17 +578,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>추락한 택시 기사가 70대였군요.ㅎㄷㄷ</t>
+          <t>한중일 대표 하이틴스러운 여돌 멤버들</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>201</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -600,28 +606,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>회사에서 "기안"  올릴때 문서 양식</t>
+          <t>참치회랑 족발중에 뭐가더 좋을까요</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -630,22 +634,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>개특가네요 트레이더스</t>
+          <t>부산 연산 홈플러스 사고</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>201</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 </t>
+          <t xml:space="preserve"> 3 </t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -658,23 +662,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ㅅㅅ하려고 어플로 만났다가 남자한테 버림받은 여시언냐</t>
+          <t>hk네트웍스 e플러그 쓰지를 못하네요</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1639</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 11 </t>
-        </is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -686,23 +688,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>레쓰비 쿠션.jpg</t>
+          <t>잔인한 수평아리 분쇄 사라질까</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>947</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6 </t>
-        </is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -714,21 +714,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>이러니 기레기라는 말을 안할래야 안할수가</t>
+          <t>고령이라고 운전 면허 반납 하는거는 쉽지 않을듯</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13 </t>
+        </is>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -740,22 +742,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>신세계백화점 라운지에서 주는 과자라네요</t>
+          <t>신세계 본점 크리스마스 장식 아직도 있나요?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1235</t>
+          <t>283</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18 </t>
+          <t xml:space="preserve"> 4 </t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -768,22 +770,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>캐시워크-52 (쥬비스)</t>
+          <t>애완동물 유튜버 사이에서 유행하는 매트</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>959</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 </t>
+          <t xml:space="preserve"> 6 </t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -796,28 +798,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021년 최악의 드라마</t>
+          <t>뽐게가 아주 개판이네요 진짜</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>501</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 </t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t xml:space="preserve"> 8 </t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -826,22 +826,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>택시 추락은 급발진 의심논란이없나요</t>
+          <t>요즘은 이런 안무의 걸그룹은 없는거같은데</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>350</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11 </t>
+          <t xml:space="preserve"> 10 </t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -854,22 +854,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>허위사실적시와 비난.비방은 인정되나 칭찬의 의도라는 판결문 대법확정</t>
+          <t>이사갈때 가전제품 어떻게 해야 할까요...</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>212</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5 </t>
+          <t xml:space="preserve"> 11 </t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -882,27 +882,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>이해하면 무서운 사진 ㄷㄷ....jpg</t>
+          <t>설강화에 대한 Jtbc 입장 한줄 요약</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>769</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 </t>
+          <t xml:space="preserve"> 3 </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -912,22 +912,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>부산 마트 5층 주차장서 택시 추락</t>
+          <t>목격자의 일관된 진술.jpg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8 </t>
+          <t xml:space="preserve"> 1 </t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -940,22 +940,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>mbc연예대상 보는데... 주제가 깐부인거같은데</t>
+          <t>T멤버십 출석체크 이벤트</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>575</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 </t>
+          <t xml:space="preserve"> 1 </t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -968,28 +968,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>착시현상.......레전드...gif</t>
+          <t>올해도 다 갔네요</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2870</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 </t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -998,28 +996,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cgv 예매해 드립니다.</t>
+          <t>로지텍 무선 키보드 MX Keys 쓰시는분??</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>258</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42 </t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1028,22 +1024,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>털크록스 따뜻한지</t>
+          <t>신한마이샵 30% 없어졌나요</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>473</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 </t>
+          <t xml:space="preserve"> 5 </t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1056,25 +1052,279 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>와 요기요 땅파서 장사하나요?</t>
+          <t>독거노인 소득인정액 180만원으로 올랐네요</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021.12.30 17:07</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>536</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10 </t>
+          <t xml:space="preserve"> 8 </t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>반박불가 올해의 드라마 원탑</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:48</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1296</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11 </t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>"또 고령운전자 사고" 잇따르는 대형사고에 대책 서둘러야</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:47</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13 </t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>귀멸의 칼날 어떤 순서로 봐야하나요?!</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:47</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>데스크탑만 쓰다가</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:47</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>엄청난 아이디어 생각났네요.. 드론 위에 태양광 발전 패드 달기!</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:46</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 </t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>물안쓰는 CO2세탁기</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:45</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 </t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cj택배 파업</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:44</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>jtbc 설강화 허위사실 법적대응</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:43</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13 </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>미국은 햄버거가 우리나라로 치면</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:40</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 21 </t>
+        </is>
+      </c>
+      <c r="F32" t="n">
         <v>0</v>
       </c>
     </row>
